--- a/biology/Histoire de la zoologie et de la botanique/Edmund_Reitter/Edmund_Reitter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edmund_Reitter/Edmund_Reitter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmund Reitter est un entomologiste autrichien, né le 22 octobre 1845 à Troppau (Silésie autrichienne) et mort le 15 mars 1920 à Paskau (aujourd'hui Paskov en Tchéquie).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est forestier en Moravie. Après ses études, il exploite une ferme avant de la louer à son propre compte. Très tôt passionné par les insectes, il rencontre le coléoptérologiste viennois Ludwig Miller (1820-1897) avec qui, en 1867, il part explorer l'Ouest des Carpates. Comme il n'a pas l'argent pour faire ce voyage, il offre à la vente une partie des insectes qu'il récolte. Aussi, il fait paraître une liste d'insectes à vendre en 1869, épisode qui marque le début de son activité de commerçant d'insectes et qui lui permet de se consacrer à temps plein à l'entomologie.
 Reitter baptise son commerce Naturhistorisches Institut, entreprise prospère qui perdure jusqu'à aujourd'hui et qui possède de modestes quartiers généraux à Munich. N'ayant pu obtenir un poste de conservateur dans un muséum, il décide d'ouvrir, en 1879, un magasin à Vienne et de vendre des spécimens et de la documentation entomologique.
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Reitter se spécialise sur les coléoptères et fait de nombreux voyages à travers l'empire austro-hongrois ainsi que dans les Carpates. Il réalise plusieurs d'entre eux accompagnés par d'autres entomologistes comme Heyden (1838-1915), Hopffgarten (1825-1904), Formánek (1857-1927), Schirmer (1855-1919), J. Kaufmann (1863-1913), Czernohorsky (1857-1942), Lezenheim (1871-1932).
 C'est l'un des premiers à tamiser systématiquement la litière pour récolter les coléoptères endogés, méthode qui sera reprise par de nombreux entomologistes. L'emploi de cette technique qu'il perfectionne lui permet de découvrir de nombreuses espèces nouvelles. Reitter s'intéresse également aux espèces cavernicoles. Reitter emploie également de nombreux récolteurs de spécimens qui lui envoient des spécimens qu'il étudie ou qu'il met en vente.
